--- a/static/templates/shop/goods/crm_info.xlsx
+++ b/static/templates/shop/goods/crm_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yin\vue-crm\static\templates\shop\goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60EEF8-531D-45BA-B3AB-A14C2481EDA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F506B6-A727-4EDB-9190-14DD4202FE67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="690" windowWidth="21600" windowHeight="14535" xr2:uid="{E99ADF52-F527-4228-ABA7-2F05A9B9B2FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E99ADF52-F527-4228-ABA7-2F05A9B9B2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="send_ticket" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>货号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
 3.表格数据从第3行开始获取
 4.本操作只能修改数据，不能增加和删除数据</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限购数量（0不限购）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +198,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +519,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,7 +529,7 @@
     <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -533,7 +540,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -553,7 +560,9 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
